--- a/res/testcase/system/parking_group.xlsx
+++ b/res/testcase/system/parking_group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" activeTab="2"/>
+    <workbookView windowWidth="21495" windowHeight="10950" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
     <t>ParkingGroupPage.勾选停车场</t>
   </si>
   <si>
-    <t>自动化测试停车场;on</t>
+    <t>$全局变量.停车场名称;on</t>
   </si>
   <si>
     <t>3勾选截图</t>
@@ -447,9 +447,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -465,36 +465,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -520,8 +490,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,6 +534,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -549,23 +572,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,6 +596,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -586,30 +610,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -626,49 +626,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,133 +794,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,13 +835,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,17 +874,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,15 +909,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -918,17 +924,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,10 +940,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -952,133 +952,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,7 +1177,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1781,7 +1781,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1866,7 +1866,6 @@
       <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>86</v>
       </c>
@@ -2006,8 +2005,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2750,7 +2749,7 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/res/testcase/system/parking_group.xlsx
+++ b/res/testcase/system/parking_group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="21600" windowHeight="10365" tabRatio="830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
   <si>
     <t>动作</t>
   </si>
@@ -252,7 +252,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ParkingGroupPage.系统管理</t>
+    <t>ParkingGroupPage.账号管理</t>
   </si>
   <si>
     <t>15</t>
@@ -261,7 +261,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>点击系统管理</t>
+    <t>点击账号管理</t>
   </si>
   <si>
     <t>3</t>
@@ -270,7 +270,7 @@
     <t>点击停车场分组管理</t>
   </si>
   <si>
-    <t>ParkingGroupPage.停车场分组管理</t>
+    <t>ParkingGroupPage.车场分组</t>
   </si>
   <si>
     <t>4</t>
@@ -294,6 +294,12 @@
     <t>6</t>
   </si>
   <si>
+    <t>ParkingGroupPage.创建分组</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>输入分组名称</t>
   </si>
   <si>
@@ -303,7 +309,7 @@
     <t>UI自动化组</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>描述输入</t>
@@ -315,81 +321,99 @@
     <t>艾科UI自动化组描述</t>
   </si>
   <si>
-    <t>8</t>
+    <t>9</t>
   </si>
   <si>
     <t>2新增分组界面</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>点击绑定停车场列</t>
+  </si>
+  <si>
+    <t>ParkingGroupPage.绑定停车场列</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>勾选停车场</t>
+  </si>
+  <si>
+    <t>ParkingGroupPage.停车场列表</t>
+  </si>
+  <si>
+    <t>自动化测试停车场2;on</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3勾选停车场</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>保存</t>
   </si>
   <si>
+    <t>ParkingGroupPage.完成</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>ParkingGroupPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>3操作成功</t>
+  </si>
+  <si>
+    <t>1停车场分组管理</t>
+  </si>
+  <si>
+    <t>输入搜索停车场组名</t>
+  </si>
+  <si>
+    <t>ParkingGroupPage.搜索框</t>
+  </si>
+  <si>
+    <t>点击查询</t>
+  </si>
+  <si>
+    <t>ParkingGroupPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>2停车场分组查询</t>
+  </si>
+  <si>
+    <t>点击绑定停车场</t>
+  </si>
+  <si>
+    <t>ParkingGroupPage.绑定停车场</t>
+  </si>
+  <si>
+    <t>勾选权限</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称;on</t>
+  </si>
+  <si>
+    <t>3勾选截图</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
     <t>ParkingGroupPage.确认-提示</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>ParkingGroupPage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3操作成功</t>
-  </si>
-  <si>
-    <t>1停车场分组管理</t>
-  </si>
-  <si>
-    <t>输入搜索停车场组名</t>
-  </si>
-  <si>
-    <t>ParkingGroupPage.搜索框</t>
-  </si>
-  <si>
-    <t>点击查询</t>
-  </si>
-  <si>
-    <t>ParkingGroupPage.搜索按钮</t>
-  </si>
-  <si>
-    <t>2停车场分组查询</t>
-  </si>
-  <si>
-    <t>点击绑定停车场</t>
-  </si>
-  <si>
-    <t>ParkingGroupPage.绑定停车场</t>
-  </si>
-  <si>
-    <t>勾选权限</t>
-  </si>
-  <si>
-    <t>ParkingGroupPage.勾选停车场</t>
-  </si>
-  <si>
-    <t>$全局变量.停车场名称;on</t>
-  </si>
-  <si>
-    <t>3勾选截图</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>4操作成功</t>
   </si>
   <si>
@@ -406,9 +430,6 @@
   </si>
   <si>
     <t>ParkingGroupPage.关闭-提示</t>
-  </si>
-  <si>
-    <t>修改后提交成功</t>
   </si>
   <si>
     <t>点击修改</t>
@@ -447,9 +468,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -465,6 +486,36 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -490,23 +541,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,6 +552,14 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,23 +578,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,17 +595,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -582,17 +611,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,14 +631,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -626,12 +647,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -680,6 +737,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -698,115 +767,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,32 +856,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,13 +876,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,6 +915,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -923,15 +953,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -940,145 +961,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1778,10 +1799,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1884,113 +1905,171 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" ht="33" customHeight="1" spans="1:5">
+    <row r="7" ht="33" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" ht="33" customHeight="1" spans="1:4">
+    <row r="10" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="11" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>107</v>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C41:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C12 C2:C4 C7:C10 C13:C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C13 C14 C15 C16 C2:C4 C8:C10 C11:C12 C17:C24">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C29">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C40">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2005,8 +2084,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2095,7 +2174,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:5">
@@ -2103,16 +2182,16 @@
         <v>87</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:5">
@@ -2120,19 +2199,19 @@
         <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>85</v>
@@ -2142,21 +2221,21 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2165,21 +2244,21 @@
         <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>85</v>
@@ -2189,27 +2268,27 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>69</v>
@@ -2218,15 +2297,15 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>85</v>
@@ -2236,7 +2315,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2244,11 +2323,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 B13 C5:C7 C9:C14">
       <formula1>Actions!$A$2:$A$37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
-      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2262,7 +2341,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2350,7 +2429,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>81</v>
@@ -2368,7 +2447,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" ht="29" customHeight="1" spans="1:5">
@@ -2376,45 +2455,45 @@
         <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="29" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2430,27 +2509,27 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" ht="29" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="29" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>85</v>
@@ -2460,7 +2539,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2468,11 +2547,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 C12 C5:C8">
       <formula1>Actions!$A$2:$A$37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
-      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2486,7 +2565,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2574,7 +2653,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>81</v>
@@ -2592,7 +2671,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2600,45 +2679,45 @@
         <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2647,21 +2726,21 @@
         <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>85</v>
@@ -2671,27 +2750,27 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>36</v>
@@ -2700,15 +2779,15 @@
         <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>85</v>
@@ -2718,7 +2797,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2726,11 +2805,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C39:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 C12 C13 C14 C5:C8">
       <formula1>Actions!$A$2:$A$37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
-      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C27">
       <formula1>Actions!$A$2:$A$35</formula1>
@@ -2749,8 +2828,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2837,7 +2916,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>81</v>
@@ -2855,7 +2934,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
@@ -2863,45 +2942,45 @@
         <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2917,27 +2996,27 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>36</v>
@@ -2946,15 +3025,15 @@
         <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>85</v>
@@ -2964,7 +3043,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2975,7 +3054,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C2:C11 C14:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C2:C3 C4:C11 C14:C16">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/testcase/system/parking_group.xlsx
+++ b/res/testcase/system/parking_group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" tabRatio="830" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
     <t>ParkingGroupPage.停车场列表</t>
   </si>
   <si>
-    <t>自动化测试停车场2;on</t>
+    <t>$全局变量.筛选数据停车场名称;on</t>
   </si>
   <si>
     <t>12</t>
@@ -467,10 +467,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -489,7 +489,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,7 +497,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,13 +513,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,6 +534,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -549,7 +550,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,6 +569,37 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,17 +617,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,37 +631,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -647,60 +647,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -737,97 +779,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,6 +856,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -871,7 +925,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,62 +948,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,10 +961,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,133 +973,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,7 +1198,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CBE9CE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1801,8 +1801,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1811,7 +1811,7 @@
     <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2084,8 +2084,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/system/parking_group.xlsx
+++ b/res/testcase/system/parking_group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="830" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="830" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="147">
   <si>
     <t>动作</t>
   </si>
@@ -468,9 +468,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1801,8 +1801,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2085,7 +2085,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2341,7 +2341,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2565,7 +2565,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2776,7 +2776,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>116</v>
@@ -2828,8 +2828,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3022,7 +3022,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>116</v>

--- a/res/testcase/system/parking_group.xlsx
+++ b/res/testcase/system/parking_group.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="148">
   <si>
     <t>动作</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>2停车场分组删除提示</t>
+  </si>
+  <si>
+    <t>操作1成功</t>
   </si>
   <si>
     <t>3停车场分组删除</t>
@@ -467,10 +470,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -495,6 +498,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -503,40 +529,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,8 +552,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,22 +598,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -596,29 +612,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,7 +622,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,49 +650,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,133 +824,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,6 +855,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,17 +898,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,6 +924,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -921,35 +942,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,10 +964,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,133 +976,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2829,7 +2832,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3028,7 +3031,7 @@
         <v>116</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
@@ -3043,7 +3046,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/system/parking_group.xlsx
+++ b/res/testcase/system/parking_group.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="147">
   <si>
     <t>动作</t>
   </si>
@@ -457,9 +457,6 @@
   </si>
   <si>
     <t>2停车场分组删除提示</t>
-  </si>
-  <si>
-    <t>操作1成功</t>
   </si>
   <si>
     <t>3停车场分组删除</t>
@@ -471,8 +468,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -498,13 +495,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -513,25 +503,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,45 +542,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,6 +551,22 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -612,9 +581,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,9 +604,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,6 +624,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -650,18 +647,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -674,163 +785,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,16 +871,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -894,15 +891,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,15 +912,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -942,17 +921,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,145 +961,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2832,7 +2829,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3031,7 +3028,7 @@
         <v>116</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
@@ -3046,7 +3043,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/system/parking_group.xlsx
+++ b/res/testcase/system/parking_group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="830" activeTab="5"/>
+    <workbookView windowWidth="21600" windowHeight="9840" tabRatio="830" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="147">
   <si>
     <t>动作</t>
   </si>
@@ -457,9 +457,6 @@
   </si>
   <si>
     <t>2停车场分组删除提示</t>
-  </si>
-  <si>
-    <t>操作1成功</t>
   </si>
   <si>
     <t>3停车场分组删除</t>
@@ -471,8 +468,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -498,8 +495,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,31 +505,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,45 +534,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,6 +543,22 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -612,9 +573,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,9 +596,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,6 +616,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -650,187 +647,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,6 +852,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,67 +948,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,10 +961,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -976,133 +973,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2832,7 +2829,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3031,7 +3028,7 @@
         <v>116</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
@@ -3046,7 +3043,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
